--- a/pred_ohlcv/54_21/2020-01-25 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30914.19936389003</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-31739.70716389003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-46501.55746389003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58840.60950546003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50417.41160546003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-62817.91390546003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-94217.91390546004</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-92228.83150546004</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-99204.11410546004</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-95884.22800546004</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-135884.2280054601</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-117612.2280054601</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-244989.4011054601</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-245541.6694054601</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-598589.4488465298</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-618942.8448465298</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-619140.9869465298</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-769140.9869465298</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-769117.5645465298</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-773074.4463465298</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-777104.2670465298</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-729781.9056800697</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-759915.2561800696</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-759884.5119800697</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-759760.3726800696</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-760317.9363800697</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-714046.4106401897</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-715123.8012401897</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1729210.971840399</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1729729.364540399</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1821381.961440399</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1793394.686141589</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1791849.184641589</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1793195.884641589</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1828545.884641589</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1844627.701441589</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1846270.079541589</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2014179.418941589</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2033266.600341589</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2052698.842041589</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2052566.943141589</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2046194.180741589</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2045135.732241589</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2091780.847541589</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2096245.289241589</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2083534.036141589</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2087163.522541589</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2086526.370541589</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2104086.027541589</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2079282.17554159</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1975348.50404159</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1955348.50404159</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-23896.10436389003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-31524.19936389003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-30914.19936389003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-31739.70716389003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-46555.62246389003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-46501.55746389003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-58840.60950546003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50417.41160546003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-62817.91390546003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-91217.91390546004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-728225.6278351599</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-738007.1771351598</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-737709.6771351598</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-742395.9754351599</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-740028.5891351599</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-760803.6738465298</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-762743.6738465298</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-597452.5775465298</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-598589.4488465298</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-618942.8448465298</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-769140.9869465298</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-769117.5645465298</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-773074.4463465298</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-777104.2670465298</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-777021.4999465297</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-741031.9602800697</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-729781.9056800697</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-719942.7914401897</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-721385.5640401897</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-653501.7110401897</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-653524.1093401897</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-654076.2736401897</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-654056.1062401896</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-659785.9190401896</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-630782.1782401896</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-674417.3671401895</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-773878.4837401895</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-734777.7138401895</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-680986.5968401895</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-680992.3664401895</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-767151.3303401895</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-764735.5200401895</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-764699.0569401894</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-794968.5714401895</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1054852.138840189</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1054744.824440189</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1055744.031840189</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1729210.971840399</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1729729.364540399</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1879739.100040399</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1879718.502640399</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1879707.502640399</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1887076.702740399</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1883858.142140399</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1821381.961440399</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1791849.184641589</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1793195.884641589</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1828545.884641589</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1825545.884641589</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1825849.721341589</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1825795.721341589</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1826689.721341589</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2036673.244541589</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1844627.701441589</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1846270.079541589</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2014179.418941589</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2033266.600341589</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2052698.842041589</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2052566.943141589</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2046194.180741589</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2045135.732241589</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2091780.847541589</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2096245.289241589</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2083534.036141589</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2087163.522541589</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2086526.370541589</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2104086.027541589</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2079282.17554159</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1975348.50404159</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1955348.50404159</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
